--- a/pred_ohlcv/54_21/2019-11-01 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 PAY ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-30703.27118750001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-31385.75258750001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-34985.75258750001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32183.23488750001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-32583.23488750001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51563.33198750001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-64241.88758750001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-50009.94138750001</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-48014.94138750001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>6394.05861249999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>17594.05861249999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>21333.05861249999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15460.05861249999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>17460.05861249999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9360.05861249999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>8377.481312499989</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16715.48131249999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9783.143887500006</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36185.0626875</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1826.587912499999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>9414.587912499999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1244.412087500001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5244.412087500001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6351.412087500001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>48928.7672125</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>48928.7672125</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>58501.7747125</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>37149.87151249999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>43811.63591249999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>72945.20191249999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>73345.20191249999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>80145.20191249999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84945.20191249999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>86545.20191249999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 PAY ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-30703.27118750001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-31385.75258750001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-34985.75258750001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32183.23488750001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-32583.23488750001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51563.33198750001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-64241.88758750001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-48014.94138750001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>6394.05861249999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>17594.05861249999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>21333.05861249999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15460.05861249999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>17460.05861249999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9360.05861249999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>8377.481312499989</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16715.48131249999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9783.143887500006</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36185.0626875</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1826.587912499999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>9414.587912499999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1244.412087500001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5244.412087500001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6351.412087500001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>48928.7672125</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>48928.7672125</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>60901.7747125</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>58501.7747125</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>62101.7747125</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>37149.87151249999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>43811.63591249999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>72945.20191249999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>73345.20191249999</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>80145.20191249999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84945.20191249999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>86545.20191249999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
